--- a/datf_core/test/testcases/testcase19_oracle_mysql_match_manual.xlsx
+++ b/datf_core/test/testcases/testcase19_oracle_mysql_match_manual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_Automated_Testing_Framework\test\testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E2D56C-4DBC-405F-8CAC-07B03E3F6119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB78AD1-57BA-40C2-813D-9FD3AF9AD6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testcase" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>app\test\s2t</t>
-  </si>
-  <si>
     <t>s2t_19_source_oracle_target_mysql_unprotected.xlsx</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>sys.orc_patients_db</t>
+  </si>
+  <si>
+    <t>test\s2t</t>
   </si>
 </sst>
 </file>
@@ -556,19 +556,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -576,7 +576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -584,15 +584,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -600,7 +600,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -608,7 +608,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -616,7 +616,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -624,7 +624,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -632,33 +632,33 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -666,26 +666,26 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -693,7 +693,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -701,7 +701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -709,7 +709,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -717,7 +717,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -725,7 +725,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
@@ -733,24 +733,24 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -758,47 +758,47 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
@@ -806,7 +806,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
@@ -814,35 +814,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="3"/>
     </row>
